--- a/tweets_treinamento.xlsx
+++ b/tweets_treinamento.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h.t/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h.t/Desktop/projeto-2-heineken-henrique-beni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DBA7D38-5571-E146-80A7-A50FE348CC37}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B235F4C-DD5F-B14A-9CD7-9D8F9FC3EC87}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1200" windowWidth="24540" windowHeight="14480" xr2:uid="{937AB541-E78C-3D4F-B446-03F8504735AE}"/>
+    <workbookView xWindow="1060" yWindow="1200" windowWidth="24540" windowHeight="14480" xr2:uid="{937AB541-E78C-3D4F-B446-03F8504735AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Treinamento (2)'!$A$1:$B$302</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Treinamento (2)'!$A$1:$B$301</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="198">
   <si>
     <t>Treinamento</t>
   </si>
@@ -709,12 +709,6 @@
   </si>
   <si>
     <t>viciar em heineken é um caminho sem volta!</t>
-  </si>
-  <si>
-    <t>você pode assinar e ajudar douglas renan meneghelli? https://t.co/bjf4modapd</t>
-  </si>
-  <si>
-    <t>x bacon com uma heineken bem gelada! https://t.co/uw9sjter4g</t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C7C489-1D57-9647-A498-CC0DE027F492}">
-  <dimension ref="A1:E302"/>
+  <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3500,29 +3494,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A300" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B300">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B302">
-        <v>1</v>
-      </c>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B302" xr:uid="{3372B673-F7E8-E441-8CE0-F8A6658352EE}"/>
+  <autoFilter ref="A1:B301" xr:uid="{3372B673-F7E8-E441-8CE0-F8A6658352EE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>